--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308774.8305155633</v>
+        <v>-311556.6759071578</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>64.90553838237537</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>128.0336711262935</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>209.8801263546596</v>
       </c>
       <c r="G5" t="n">
-        <v>216.2806018798683</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>55.90923991536274</v>
+        <v>101.7177065691262</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>264.4559794152176</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>387.6384779034494</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
@@ -1187,19 +1187,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>46.38520044638528</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>175.9052001295628</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>251.7801198313574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>121.6761271205435</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>187.0564927499865</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>33.8235172368756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>191.9440058362632</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>105.8460632289448</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>101.9434035445953</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>209.1156873304392</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261736</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808189</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.416431066817</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C2" t="n">
-        <v>1303.85528118563</v>
+        <v>980.0440797398257</v>
       </c>
       <c r="D2" t="n">
-        <v>945.5895825788796</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.280131569335</v>
+        <v>665.6547661109871</v>
       </c>
       <c r="D5" t="n">
-        <v>760.0144329625848</v>
+        <v>665.6547661109871</v>
       </c>
       <c r="E5" t="n">
-        <v>760.0144329625848</v>
+        <v>279.8665135127429</v>
       </c>
       <c r="F5" t="n">
-        <v>753.0689322133813</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307624</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.836890907997</v>
+        <v>1351.24026920853</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.709638973434</v>
+        <v>982.2777522681185</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>982.2777522681185</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>982.2777522681185</v>
       </c>
       <c r="F8" t="n">
         <v>590.7237341838262</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.302649169077</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.836890907997</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.836890907997</v>
+        <v>1351.24026920853</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.2060920488001</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="C10" t="n">
-        <v>648.2060920488001</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="D10" t="n">
-        <v>648.2060920488001</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="E10" t="n">
-        <v>648.2060920488001</v>
+        <v>332.7092995462731</v>
       </c>
       <c r="F10" t="n">
-        <v>501.3161445508897</v>
+        <v>332.7092995462731</v>
       </c>
       <c r="G10" t="n">
         <v>332.7092995462731</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>876.1956429468174</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>876.1956429468174</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="V10" t="n">
-        <v>876.1956429468174</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="W10" t="n">
-        <v>876.1956429468174</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="X10" t="n">
-        <v>648.2060920488001</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.2060920488001</v>
+        <v>379.5630373709047</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5233,16 +5233,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>593.6115863900017</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>593.6115863900017</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>445.6984928076085</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>298.8085453096982</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>298.8085453096982</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5601,16 +5601,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.9192356072703</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>815.9830526793634</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>665.8664132670276</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648818</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.7118147508</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072703</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
         <v>484.8112968429803</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6315,7 +6315,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,46 +6449,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452613</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7263,7 +7263,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.3734194384019</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380727</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>339.1843734049999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>300.3673533886322</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>226.6493704943895</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>145.2779396364419</v>
       </c>
       <c r="T2" t="n">
-        <v>14.4739945322468</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37.70876137138012</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.357523492470591</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.6185857256804</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>99.12798163925768</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.902616885432</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>112.6104454096936</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>60.19363748756484</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>61.40075786968302</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>115.4620467826929</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.289762996849078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-2.293720896561331e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1077034.980022581</v>
+        <v>1077034.980022582</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350418</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915022</v>
@@ -26332,25 +26332,25 @@
         <v>282501.3098915023</v>
       </c>
       <c r="I2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="J2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="K2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="K2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="L2" t="n">
-        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524993</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,16 +26421,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682751</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682751</v>
@@ -26439,25 +26439,25 @@
         <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682771</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="K4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-572789.7518034914</v>
+        <v>-573045.6210429019</v>
       </c>
       <c r="C6" t="n">
-        <v>-5416.874073943356</v>
+        <v>-5416.874073943211</v>
       </c>
       <c r="D6" t="n">
-        <v>-161220.6801677385</v>
+        <v>-161220.6801677383</v>
       </c>
       <c r="E6" t="n">
-        <v>-595351.4478798939</v>
+        <v>-595386.1858053297</v>
       </c>
       <c r="F6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="G6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="H6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="I6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="J6" t="n">
-        <v>-721.9756916806218</v>
+        <v>-756.7136171163878</v>
       </c>
       <c r="K6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="L6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="M6" t="n">
-        <v>51492.73279285368</v>
+        <v>51457.99486741817</v>
       </c>
       <c r="N6" t="n">
-        <v>175701.2435009125</v>
+        <v>175666.5055754765</v>
       </c>
       <c r="O6" t="n">
-        <v>151104.3897751759</v>
+        <v>151104.3897751758</v>
       </c>
       <c r="P6" t="n">
-        <v>170532.1077688074</v>
+        <v>170532.1077688077</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>29.13777317252965</v>
       </c>
       <c r="T2" t="n">
-        <v>201.974325825411</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>1.968426899064184</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>92.03791056481029</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>196.9959193870518</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>197.5035681409267</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>111.3375811832651</v>
+        <v>65.52911452950163</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>100.81691235579</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>19.23756783826201</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.0487622001839</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>47.46770459119588</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31844,22 +31844,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>399.190220890813</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>520.494814167227</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>261.348781916454</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
